--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/37.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/37.xlsx
@@ -479,13 +479,13 @@
         <v>0.1632333313432354</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.793256260470894</v>
+        <v>-1.786671351476932</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04303143588783908</v>
+        <v>0.04388770228982666</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07964604040721522</v>
+        <v>-0.08145773641583232</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.1750580170365435</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.837132830486711</v>
+        <v>-1.834110713773814</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02115729215912342</v>
+        <v>0.02313426017547708</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06249080600415903</v>
+        <v>-0.06231608988169465</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.2000538000039769</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.938071528697482</v>
+        <v>-1.935296532986629</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01834743974728124</v>
+        <v>-0.01983016575954649</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06760322011014366</v>
+        <v>-0.07000045123188461</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.2264141976931601</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.980962762743365</v>
+        <v>-1.974852420514476</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03775509551291872</v>
+        <v>-0.03855627124566077</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0631062474805876</v>
+        <v>-0.06475896755795332</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.2456616188874514</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.937601683989773</v>
+        <v>-1.927481528049371</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02093670120182087</v>
+        <v>-0.01980340743448438</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.080267777960129</v>
+        <v>-0.08342526031745817</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.2512649322605775</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.809637864475831</v>
+        <v>-1.797615506427336</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02020815862897911</v>
+        <v>0.02142172737150193</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06909853827537932</v>
+        <v>-0.06992017625669827</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.2432746616518628</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.538549273271577</v>
+        <v>-1.523857378793357</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05648300329847476</v>
+        <v>0.05648772535583866</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06456378918691204</v>
+        <v>-0.06487229693468698</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2260452523354393</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.132435812775226</v>
+        <v>-1.113801000398147</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04885530663665162</v>
+        <v>0.04674769503323</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04935089437954089</v>
+        <v>-0.04919821452477472</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.2072043387380028</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6264508390323463</v>
+        <v>-0.6070164249416468</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04254663799847846</v>
+        <v>0.03963312860495089</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02113030555374086</v>
+        <v>-0.02219906453710403</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1978782540835353</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1193506727420251</v>
+        <v>-0.100421518789263</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05277753400661249</v>
+        <v>-0.05641037013857447</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01740325655482128</v>
+        <v>0.01621644613736056</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.208688338722902</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4665307245885169</v>
+        <v>0.4868324232150532</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2314019459491784</v>
+        <v>-0.2321464569935537</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07775587172285356</v>
+        <v>0.07590167719796134</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2502486256883957</v>
       </c>
       <c r="E13" t="n">
-        <v>1.049007518559686</v>
+        <v>1.072339203994726</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5119724283401473</v>
+        <v>-0.5088967949771258</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1685893671748736</v>
+        <v>0.1662708370091977</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3284600691760003</v>
       </c>
       <c r="E14" t="n">
-        <v>1.639598381101159</v>
+        <v>1.665579140717348</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.821531620888111</v>
+        <v>-0.8163184695583632</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2714845711534209</v>
+        <v>0.2661596644660607</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4456236587070746</v>
       </c>
       <c r="E15" t="n">
-        <v>2.325684983731946</v>
+        <v>2.356883616735247</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.158640870116201</v>
+        <v>-1.152691864847245</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3939967754407386</v>
+        <v>0.3893707332432359</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5958143615671851</v>
       </c>
       <c r="E16" t="n">
-        <v>2.870586793239424</v>
+        <v>2.905660661319367</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.507723682800024</v>
+        <v>-1.50154644475848</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5224351617197535</v>
+        <v>0.5199749698331605</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.769284218597803</v>
       </c>
       <c r="E17" t="n">
-        <v>3.368999947999287</v>
+        <v>3.4041824233986</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.84897889839362</v>
+        <v>-1.842786707170423</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6415396146094552</v>
+        <v>0.6362839647634322</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9503737981203224</v>
       </c>
       <c r="E18" t="n">
-        <v>3.779343584884134</v>
+        <v>3.810981369222278</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.157647196118928</v>
+        <v>-2.147507364939508</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7969126160921673</v>
+        <v>0.7933191304382379</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.127783156923443</v>
       </c>
       <c r="E19" t="n">
-        <v>4.125717510660199</v>
+        <v>4.154869918805809</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.510522607875525</v>
+        <v>-2.498518351046926</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9403970511516955</v>
+        <v>0.9364682994249289</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.292204230986148</v>
       </c>
       <c r="E20" t="n">
-        <v>4.438205952792903</v>
+        <v>4.468918213887722</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.831265993289891</v>
+        <v>-2.816190038146073</v>
       </c>
       <c r="G20" t="n">
-        <v>1.060538782642334</v>
+        <v>1.053874385682747</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.43767902599676</v>
       </c>
       <c r="E21" t="n">
-        <v>4.652812441848403</v>
+        <v>4.678050264439339</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.103334411397154</v>
+        <v>-3.086402687709323</v>
       </c>
       <c r="G21" t="n">
-        <v>1.168343352260218</v>
+        <v>1.159579213792816</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.557492242918389</v>
       </c>
       <c r="E22" t="n">
-        <v>4.820511587070021</v>
+        <v>4.845533769041338</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.318823925179704</v>
+        <v>-3.297687209409318</v>
       </c>
       <c r="G22" t="n">
-        <v>1.252441619892193</v>
+        <v>1.241214141499955</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.650992096992658</v>
       </c>
       <c r="E23" t="n">
-        <v>4.932498325493201</v>
+        <v>4.956295920588146</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.458684968221998</v>
+        <v>-3.437524642164792</v>
       </c>
       <c r="G23" t="n">
-        <v>1.329012928086108</v>
+        <v>1.316595491238166</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.719606393392298</v>
       </c>
       <c r="E24" t="n">
-        <v>5.002307647542008</v>
+        <v>5.026215423975444</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.573888214719556</v>
+        <v>-3.551756718864508</v>
       </c>
       <c r="G24" t="n">
-        <v>1.390091166069059</v>
+        <v>1.376981160807746</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.769563689184233</v>
       </c>
       <c r="E25" t="n">
-        <v>4.99472244939646</v>
+        <v>5.015985873706111</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.675576933041626</v>
+        <v>-3.65362959742377</v>
       </c>
       <c r="G25" t="n">
-        <v>1.429235447596686</v>
+        <v>1.416008964920397</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.803914504634782</v>
       </c>
       <c r="E26" t="n">
-        <v>4.981869009251918</v>
+        <v>5.000511691724603</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.694443913239097</v>
+        <v>-3.673610983159122</v>
       </c>
       <c r="G26" t="n">
-        <v>1.453555617039903</v>
+        <v>1.439304447915647</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.827564408551651</v>
       </c>
       <c r="E27" t="n">
-        <v>4.938149054138671</v>
+        <v>4.953683048846787</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.650815251234884</v>
+        <v>-3.633667886927435</v>
       </c>
       <c r="G27" t="n">
-        <v>1.449675659905897</v>
+        <v>1.436021044028613</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.841299614098844</v>
       </c>
       <c r="E28" t="n">
-        <v>4.787208490501541</v>
+        <v>4.802348980429333</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.582589392422106</v>
+        <v>-3.566945216375498</v>
       </c>
       <c r="G28" t="n">
-        <v>1.401715297279865</v>
+        <v>1.387059605241434</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.846699000810922</v>
       </c>
       <c r="E29" t="n">
-        <v>4.658160958822583</v>
+        <v>4.671908441828023</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.493765919387987</v>
+        <v>-3.478792275487053</v>
       </c>
       <c r="G29" t="n">
-        <v>1.357837940254487</v>
+        <v>1.344088883229926</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.8433924161018</v>
       </c>
       <c r="E30" t="n">
-        <v>4.50463900382652</v>
+        <v>4.51488901634443</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.363843233077585</v>
+        <v>-3.345315454000755</v>
       </c>
       <c r="G30" t="n">
-        <v>1.305470324088813</v>
+        <v>1.292105327729849</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.832662408709856</v>
       </c>
       <c r="E31" t="n">
-        <v>4.348417606037427</v>
+        <v>4.356874810776175</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.241816613689189</v>
+        <v>-3.222404235866188</v>
       </c>
       <c r="G31" t="n">
-        <v>1.242232531871437</v>
+        <v>1.231848727728216</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.814974801080732</v>
       </c>
       <c r="E32" t="n">
-        <v>4.212003664870782</v>
+        <v>4.22203331471171</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.102168850237832</v>
+        <v>-3.081610586494523</v>
       </c>
       <c r="G32" t="n">
-        <v>1.171962022220089</v>
+        <v>1.160641676699694</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.791889624984481</v>
       </c>
       <c r="E33" t="n">
-        <v>4.006839716523965</v>
+        <v>4.015983193599601</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.976830494618218</v>
+        <v>-2.953733338032252</v>
       </c>
       <c r="G33" t="n">
-        <v>1.1028043440875</v>
+        <v>1.092362301236792</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.763202304073799</v>
       </c>
       <c r="E34" t="n">
-        <v>3.75169908705673</v>
+        <v>3.761650035941593</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.899276998492612</v>
+        <v>-2.877188001153839</v>
       </c>
       <c r="G34" t="n">
-        <v>1.044143799474866</v>
+        <v>1.034054336907329</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.728094358710312</v>
       </c>
       <c r="E35" t="n">
-        <v>3.510644354706014</v>
+        <v>3.520472530099416</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.805237226090502</v>
+        <v>-2.780660491530513</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9466742394074427</v>
+        <v>0.9346487333207054</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.684554524557323</v>
       </c>
       <c r="E36" t="n">
-        <v>3.249070709090024</v>
+        <v>3.256405638195285</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.74331059180117</v>
+        <v>-2.722371415430506</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8751146080957495</v>
+        <v>0.8635534376497959</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.631677610766574</v>
       </c>
       <c r="E37" t="n">
-        <v>3.00339465659917</v>
+        <v>3.012675073338359</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.645481368364528</v>
+        <v>-2.625001805577285</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8243052708601633</v>
+        <v>0.8151554977080424</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.569380002398808</v>
       </c>
       <c r="E38" t="n">
-        <v>2.713092013981198</v>
+        <v>2.719018195972896</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.560090044024406</v>
+        <v>-2.542586164385981</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7566051344338994</v>
+        <v>0.7464936355986638</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.499715583499705</v>
       </c>
       <c r="E39" t="n">
-        <v>2.456706335389015</v>
+        <v>2.461537000072286</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.443282872042242</v>
+        <v>-2.422970942291418</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6871200603240806</v>
+        <v>0.6770400418712709</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.424707444814736</v>
       </c>
       <c r="E40" t="n">
-        <v>2.220693186283826</v>
+        <v>2.224869059012637</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.345566190972774</v>
+        <v>-2.324019443221289</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6367797807866419</v>
+        <v>0.6289128332183811</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.347398452997311</v>
       </c>
       <c r="E41" t="n">
-        <v>2.02024972128179</v>
+        <v>2.024894651708748</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.251949042704734</v>
+        <v>-2.231821273191101</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5723882325533521</v>
+        <v>0.5648172005798958</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.268212233668824</v>
       </c>
       <c r="E42" t="n">
-        <v>1.762930649350675</v>
+        <v>1.763971075989854</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.154872200408075</v>
+        <v>-2.13534649320834</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5033234215489205</v>
+        <v>0.4964544021035643</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.188753894690754</v>
       </c>
       <c r="E43" t="n">
-        <v>1.546057572760502</v>
+        <v>1.547178274374868</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.07290358064722</v>
+        <v>-2.053115012254228</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4503450859641819</v>
+        <v>0.4438270727828758</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.108156693894362</v>
       </c>
       <c r="E44" t="n">
-        <v>1.31219453377501</v>
+        <v>1.310411170110576</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.984343755815919</v>
+        <v>-1.964585880795792</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4064929132447448</v>
+        <v>0.4027546178316557</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.028319822135848</v>
       </c>
       <c r="E45" t="n">
-        <v>1.102259733471531</v>
+        <v>1.100981629945034</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.906898080000122</v>
+        <v>-1.888161743389719</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3482982782920158</v>
+        <v>0.345247829234935</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.9486794466209718</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9008435246525305</v>
+        <v>0.8982700033892039</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.840272211624145</v>
+        <v>-1.821771190872377</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2785346027977267</v>
+        <v>0.2750638906352587</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.8722960138225501</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7388108482675951</v>
+        <v>0.7352268067283935</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.795111242005347</v>
+        <v>-1.778523441495519</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2420897640631306</v>
+        <v>0.2398861372933096</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.798259077690599</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5792100314250692</v>
+        <v>0.576298096050663</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.727112041946036</v>
+        <v>-1.709495619940438</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1995896737688907</v>
+        <v>0.198816830380332</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.7287448203269495</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4501137051533508</v>
+        <v>0.4461660651971286</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.679435002761838</v>
+        <v>-1.662190049268867</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1426857344956282</v>
+        <v>0.1397407447196746</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.6614676704324792</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3551783158712211</v>
+        <v>0.3548383277410201</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.613857431120648</v>
+        <v>-1.594764579179271</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1121529115806375</v>
+        <v>0.1111093369032151</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5983511251796944</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2229449694907503</v>
+        <v>0.221655847830405</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.565622402157949</v>
+        <v>-1.548534850577109</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07464246190092079</v>
+        <v>0.07328723143748089</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.5391093802241796</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1163649867492381</v>
+        <v>0.115228544943659</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.518704827199779</v>
+        <v>-1.499733961740302</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04549320179355335</v>
+        <v>0.04497849754088803</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4864771099910069</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02142015335238064</v>
+        <v>0.01806119654752497</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.505124977230757</v>
+        <v>-1.489243911306394</v>
       </c>
       <c r="G53" t="n">
-        <v>0.006377252610109962</v>
+        <v>0.006002636059240399</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.4402144275639113</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.07198056728648088</v>
+        <v>-0.07629652771708736</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.486739646884405</v>
+        <v>-1.470467437208398</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01509551624267402</v>
+        <v>-0.01587308168859656</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.4012684736759586</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1437385250074579</v>
+        <v>-0.1478750472582361</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.472595511060397</v>
+        <v>-1.455632306990139</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04495308495462677</v>
+        <v>-0.04579518518452264</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3676835563248346</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2168044926182359</v>
+        <v>-0.2233476901054828</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.478898670631645</v>
+        <v>-1.462326610313031</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07439668663767743</v>
+        <v>-0.07435418812140232</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3387237898494627</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.270042541357989</v>
+        <v>-0.2753705960835919</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.474189205420713</v>
+        <v>-1.456957631090274</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1134905995534226</v>
+        <v>-0.1166496559298731</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.3130660583561837</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3574226388578754</v>
+        <v>-0.3644522082536043</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.473518673275039</v>
+        <v>-1.45635950382418</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1320231006876169</v>
+        <v>-0.1342582078398639</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2903184747989394</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4331219404585894</v>
+        <v>-0.4410046282180632</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.49682674842326</v>
+        <v>-1.481572142109174</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1549911877056366</v>
+        <v>-0.1568878807468039</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2700395237156438</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4958654906718774</v>
+        <v>-0.5006379166476611</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.51260707712386</v>
+        <v>-1.497972634343567</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1904963370248162</v>
+        <v>-0.1940599163154409</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2513714322616719</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.569668099231424</v>
+        <v>-0.5754384533301123</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.543302024008345</v>
+        <v>-1.529643473083258</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2116889304740086</v>
+        <v>-0.214726787378119</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2343120232335174</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6255662402861754</v>
+        <v>-0.631882779019955</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.568089677130588</v>
+        <v>-1.552290460200532</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2226976202083856</v>
+        <v>-0.2248256940603842</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2187000240305271</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.679251310456378</v>
+        <v>-0.6862903239668346</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.614546851495778</v>
+        <v>-1.599608623025073</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2573685393932759</v>
+        <v>-0.2601624233335846</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.203964822301291</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7370996612024208</v>
+        <v>-0.7451964155623916</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.658077924314469</v>
+        <v>-1.644204519779325</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2762788051165824</v>
+        <v>-0.2777568090714837</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1891105036485411</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8169527992642474</v>
+        <v>-0.8272516063749177</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.702577018892761</v>
+        <v>-1.688632783497158</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3070792112821942</v>
+        <v>-0.3107986184658277</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1748677556575747</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8994211700961149</v>
+        <v>-0.9139942261306773</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.741591443842881</v>
+        <v>-1.727634616294307</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3246263764464543</v>
+        <v>-0.3269338884782811</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1608229283777837</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9516227272444916</v>
+        <v>-0.9658849145025971</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.769293393368212</v>
+        <v>-1.754000223585655</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3492078330638071</v>
+        <v>-0.352039493463027</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1468066008878852</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.002336049313678</v>
+        <v>-1.021828702111866</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.80114209626861</v>
+        <v>-1.785005252237036</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3760590252540755</v>
+        <v>-0.3800664779369071</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1326179047682638</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.028892899928264</v>
+        <v>-1.050475850119539</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.83229114766959</v>
+        <v>-1.812390036909425</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3937572962539805</v>
+        <v>-0.3972768030092088</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1178886086234142</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.026306786511967</v>
+        <v>-1.047818905842783</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.86658587628449</v>
+        <v>-1.848067541322387</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4210681020276687</v>
+        <v>-0.4267219787113808</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1026237183325982</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.024763460763531</v>
+        <v>-1.0427324630523</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.891213766465921</v>
+        <v>-1.872090221151678</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4309167396696471</v>
+        <v>-0.4367705167817644</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.08787584390959985</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.032879103352958</v>
+        <v>-1.053984338740918</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.935936371759437</v>
+        <v>-1.91754553234616</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4354373225860227</v>
+        <v>-0.441018794390155</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.07223667860747697</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9984749804091279</v>
+        <v>-1.020899243820738</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.951529392184603</v>
+        <v>-1.930128241201838</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4475745840303723</v>
+        <v>-0.453006524017981</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.0565396179765772</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.942409206317958</v>
+        <v>-0.9632271832162809</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.992649067709462</v>
+        <v>-1.972792816494254</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4507603987318849</v>
+        <v>-0.4577144152097913</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.04162295647333604</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.8847418677708647</v>
+        <v>-0.9062051925089208</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.016030334746823</v>
+        <v>-1.995114768662979</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4568612968460464</v>
+        <v>-0.4634643070599028</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.02558946182727155</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7930308566587194</v>
+        <v>-0.8134726429870515</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.053689529233502</v>
+        <v>-2.035858253617848</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4469638646113077</v>
+        <v>-0.4526413515818392</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.009449008019481698</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.7028915036391929</v>
+        <v>-0.7256990407068399</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.05210134394011</v>
+        <v>-2.036443788730971</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4303626849389493</v>
+        <v>-0.4348281771860794</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.00708200323473579</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5900138703933567</v>
+        <v>-0.6121351351241167</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.061506108189882</v>
+        <v>-2.048307170848215</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4223131511526176</v>
+        <v>-0.4267566071320494</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.02326449415662928</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.431983924633889</v>
+        <v>-0.4537966816168739</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.047443821360181</v>
+        <v>-2.035668584313731</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.396367019957097</v>
+        <v>-0.4003949348885055</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.04027921376711895</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.294871118977386</v>
+        <v>-0.3181335475710889</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.014420900195293</v>
+        <v>-2.002681078579072</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3777684100198081</v>
+        <v>-0.3822480684390299</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.05733570629602004</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.09167469453219508</v>
+        <v>-0.1135992068727924</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.977298446228977</v>
+        <v>-1.963891738363298</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3531901014406978</v>
+        <v>-0.3586362076003982</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.07261025695959379</v>
       </c>
       <c r="E82" t="n">
-        <v>0.08330114108719587</v>
+        <v>0.06293175963844368</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.933238502985528</v>
+        <v>-1.919428059215236</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3383754334710158</v>
+        <v>-0.3465445927105664</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.08448364938618504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.286105634771183</v>
+        <v>0.2639166872182072</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.878199776371007</v>
+        <v>-1.865857105431328</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2958721951385333</v>
+        <v>-0.3022926191343188</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.0919451098575497</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5058119457796969</v>
+        <v>0.4881042306650641</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.800897336295248</v>
+        <v>-1.790549734591817</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2688966554376821</v>
+        <v>-0.277083128887567</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.09384516804612002</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6929565232258634</v>
+        <v>0.677370585886744</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.685805058145742</v>
+        <v>-1.675824989907135</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2469390886955375</v>
+        <v>-0.2568868895421579</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.09146038221035666</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9039301761494012</v>
+        <v>0.88666003835049</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.600241378711836</v>
+        <v>-1.592824600612267</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.212910369312138</v>
+        <v>-0.2227527108776312</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.08695216514346751</v>
       </c>
       <c r="E87" t="n">
-        <v>1.120115406383565</v>
+        <v>1.10542980798183</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.486283181339227</v>
+        <v>-1.482324523249156</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1706762882493979</v>
+        <v>-0.178450368689502</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.0826607105337715</v>
       </c>
       <c r="E88" t="n">
-        <v>1.295569743815832</v>
+        <v>1.283928298394692</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.327037305808555</v>
+        <v>-1.321057607166733</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1463671369400301</v>
+        <v>-0.1554083027727812</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.08197691270137185</v>
       </c>
       <c r="E89" t="n">
-        <v>1.431801098764406</v>
+        <v>1.421733672464567</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.144734411179509</v>
+        <v>-1.13834546756615</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1185841254299516</v>
+        <v>-0.1275560344213656</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.08681397543092015</v>
       </c>
       <c r="E90" t="n">
-        <v>1.548678314597468</v>
+        <v>1.539452988527524</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9607166227178062</v>
+        <v>-0.9550721901488221</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.09113323195446765</v>
+        <v>-0.09877509478838249</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.09797896778453088</v>
       </c>
       <c r="E91" t="n">
-        <v>1.620105728302972</v>
+        <v>1.608443820633255</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7683958833912424</v>
+        <v>-0.7641413097063666</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.09524142186106244</v>
+        <v>-0.1032909556473942</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1172116313586645</v>
       </c>
       <c r="E92" t="n">
-        <v>1.690055138053574</v>
+        <v>1.682767429521952</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5706581572587222</v>
+        <v>-0.5696507850210898</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08791908490877164</v>
+        <v>-0.09540354583055641</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1445727209565183</v>
       </c>
       <c r="E93" t="n">
-        <v>1.703739660294162</v>
+        <v>1.69898140049047</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4003225300089256</v>
+        <v>-0.4003587324487156</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.08966309809517281</v>
+        <v>-0.09567427711942013</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1791501782814675</v>
       </c>
       <c r="E94" t="n">
-        <v>1.691830631622401</v>
+        <v>1.687788550518901</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2164109878379107</v>
+        <v>-0.2169965229510346</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1044022131470324</v>
+        <v>-0.1080806958335122</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2187058204909014</v>
       </c>
       <c r="E95" t="n">
-        <v>1.660827176990142</v>
+        <v>1.657531180950138</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07265109943215498</v>
+        <v>-0.07177122274334789</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1111972536936875</v>
+        <v>-0.1155462685258413</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2603972142190013</v>
       </c>
       <c r="E96" t="n">
-        <v>1.606690363332126</v>
+        <v>1.606984704907809</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02771780385670469</v>
+        <v>0.02493651206936637</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1197300113502585</v>
+        <v>-0.1219320641009582</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2997990724763739</v>
       </c>
       <c r="E97" t="n">
-        <v>1.520410505198029</v>
+        <v>1.524343978982159</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0899938703909664</v>
+        <v>0.08687101645430584</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1392887729515409</v>
+        <v>-0.1403071633230224</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3325325350499278</v>
       </c>
       <c r="E98" t="n">
-        <v>1.382266717017074</v>
+        <v>1.383269367197342</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1399422191672011</v>
+        <v>0.1376205409632826</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1480938359160969</v>
+        <v>-0.1492696281997085</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3555079665443201</v>
       </c>
       <c r="E99" t="n">
-        <v>1.254698763312138</v>
+        <v>1.255781688467593</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1477603721427016</v>
+        <v>0.1435766293182844</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1620223311204867</v>
+        <v>-0.1626881412087969</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3643271414738491</v>
       </c>
       <c r="E100" t="n">
-        <v>1.124928756856503</v>
+        <v>1.125270319005825</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1623845837987063</v>
+        <v>0.156567009126379</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.169158933816464</v>
+        <v>-0.1698121517518038</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3595989794256703</v>
       </c>
       <c r="E101" t="n">
-        <v>1.016990395613308</v>
+        <v>1.019066526834304</v>
       </c>
       <c r="F101" t="n">
-        <v>0.175485144945292</v>
+        <v>0.1703916190687629</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1932351302958794</v>
+        <v>-0.1940473241624705</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3403162052784617</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8992852457224428</v>
+        <v>0.9005381649429982</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1664062026536296</v>
+        <v>0.1585864756590078</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1915761141420284</v>
+        <v>-0.1903562493230204</v>
       </c>
     </row>
   </sheetData>
